--- a/document/data source_課程資料/普高/skills_info/skills_info_數學甲(上).xlsx
+++ b/document/data source_課程資料/普高/skills_info/skills_info_數學甲(上).xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\math-master\document\data source_課程資料\普高\skills_info\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="11083"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="規則一樣 接著是數學數學甲(上) skill_curricul" sheetId="1" r:id="rId4"/>
+    <sheet name="規則一樣 接著是數學數學甲(上) skill_curricul" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -61,9 +69,6 @@
     <t>text</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「收斂」代表 n → ∞ 時，aₙ 趨近一個定值 L；否則為「發散」。</t>
-  </si>
-  <si>
     <t>seq_limit_calc</t>
   </si>
   <si>
@@ -76,9 +81,6 @@
     <t>熟練計算有理函數型數列的極限（分子分母同除 n 的最高次）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生找出 n 的最高次，並同除分子與分母。</t>
-  </si>
-  <si>
     <t>seq_limit_squeeze</t>
   </si>
   <si>
@@ -91,9 +93,6 @@
     <t>熟練應用夾擠定理求數列極限。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生若 aₙ ≤ bₙ ≤ cₙ 且 lim aₙ = lim cₙ = L，則 lim bₙ = L。</t>
-  </si>
-  <si>
     <t>infinite_geometric_series_sum</t>
   </si>
   <si>
@@ -106,9 +105,6 @@
     <t>熟練計算無窮等比級數和 S = a / (1-r)，並判斷收斂條件 (|r| &lt; 1)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生檢查 |r| &lt; 1，並使用公式 S = a₁ / (1-r)。</t>
-  </si>
-  <si>
     <t>function_ops</t>
   </si>
   <si>
@@ -124,9 +120,6 @@
     <t>熟練 (f+g)(x), (f-g)(x), (f·g)(x), (f/g)(x) 的定義與計算。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 (f/g)(x) 的定義域需注意 g(x) ≠ 0。</t>
-  </si>
-  <si>
     <t>function_composition</t>
   </si>
   <si>
@@ -139,9 +132,6 @@
     <t>熟練計算合成函數 g(f(x))。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 g(f(x)) 是將 f(x) 的值代入 g(x) 的 x 中。</t>
-  </si>
-  <si>
     <t>function_limit_intuitive</t>
   </si>
   <si>
@@ -154,9 +144,6 @@
     <t>熟練從函數圖形判斷 x 趨近 a 時 f(x) 的極限。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 lim f(x) 是 x「趨近」a 的值，不等於 f(a)。</t>
-  </si>
-  <si>
     <t>function_limit_calc</t>
   </si>
   <si>
@@ -169,9 +156,6 @@
     <t>熟練計算函數極限（代入、因式分解、有理化） 0/0 型。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生若代入為 0/0，需使用因式分解或有理化來消除不定型。</t>
-  </si>
-  <si>
     <t>function_limit_onesided</t>
   </si>
   <si>
@@ -184,9 +168,6 @@
     <t>熟練計算左右極限，並判斷極限是否存在（左極限 = 右極限）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生極限存在 ⇔ 左極限 = 右極限。</t>
-  </si>
-  <si>
     <t>function_limit_squeeze</t>
   </si>
   <si>
@@ -199,9 +180,6 @@
     <t>熟練應用夾擠定理求函數極限。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生若 f(x) ≤ g(x) ≤ h(x) 且 lim f(x) = lim h(x) = L，則 lim g(x) = L。</t>
-  </si>
-  <si>
     <t>function_continuity</t>
   </si>
   <si>
@@ -214,9 +192,6 @@
     <t>熟練判斷函數在 x=a 處是否連續（lim f(x) = f(a)）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「連續」需滿足 1. f(a)有定義 2. lim f(x) 存在 3. 極限值 = 函數值。</t>
-  </si>
-  <si>
     <t>intermediate_value_theorem</t>
   </si>
   <si>
@@ -229,9 +204,6 @@
     <t>熟練應用介值定理（勘根定理）判斷 f(x)=0 在 [a, b] 之間是否有實根。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生若 f(x) 在 [a, b] 連續且 f(a)·f(b) &lt; 0，則在 (a, b) 至少有一實根。</t>
-  </si>
-  <si>
     <t>derivative_definition_limit</t>
   </si>
   <si>
@@ -247,9 +219,6 @@
     <t>熟練使用 f'(a) = lim [f(x) - f(a)] / [x - a] 計算導數。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 f'(a) = lim [f(a+h) - f(a)] / h 的極限定義。</t>
-  </si>
-  <si>
     <t>tangent_line_slope</t>
   </si>
   <si>
@@ -262,9 +231,6 @@
     <t>熟練計算 f(x) 在 x=a 處的切線斜率 m = f'(a) 並求切線方程式。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生切線斜率 m = f'(a)，切線 L: y - f(a) = f'(a) (x - a)。</t>
-  </si>
-  <si>
     <t>differentiability</t>
   </si>
   <si>
@@ -277,9 +243,6 @@
     <t>熟練判斷函數的可微分性（圖形需連續且平滑，不可有尖點）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「可微分」必「連續」，但「連續」不一定「可微分」（例如 f(x) = |x| 在 x=0）。</t>
-  </si>
-  <si>
     <t>derivative_formulas_poly</t>
   </si>
   <si>
@@ -292,9 +255,6 @@
     <t>熟練應用多項式的微分公式（(c)'=0, (xⁿ)'=nxⁿ⁻¹）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 (c f(x))' = c f'(x) 且 (f+g)' = f' + g'。</t>
-  </si>
-  <si>
     <t>derivative_product_rule</t>
   </si>
   <si>
@@ -307,9 +267,6 @@
     <t>熟練應用乘法規則 (f·g)' = f'·g + f·g'。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 (f·g)' = f'g + fg' (前微後不微 + 前不微後微)。</t>
-  </si>
-  <si>
     <t>derivative_quotient_rule</t>
   </si>
   <si>
@@ -322,9 +279,6 @@
     <t>熟練應用除法規則 (f/g)' = (f'g - fg') / g²。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 (f/g)' = (f'g - fg') / g² (子微母不微 - 子不微母微 / 母平方)。</t>
-  </si>
-  <si>
     <t>derivative_chain_rule</t>
   </si>
   <si>
@@ -337,9 +291,6 @@
     <t>熟練應用連鎖律 [g(f(x))]' = g'(f(x)) · f'(x)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 [g(f(x))]' = g'(f(x)) · f'(x) (先微外面，再乘裡面)。</t>
-  </si>
-  <si>
     <t>linear_approximation</t>
   </si>
   <si>
@@ -352,9 +303,6 @@
     <t>熟練應用 L(x) = f(a) + f'(a)(x-a) 求 f(x) 在 x=a 附近的近似值。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 L(x) = f(a) + f'(a)(x-a) 是 f(x) 在 x=a 處的切線方程式。</t>
-  </si>
-  <si>
     <t>kinematics_velocity_acceleration</t>
   </si>
   <si>
@@ -367,9 +315,6 @@
     <t>熟練應用微分求速度 v(t) = s'(t) 與加速度 a(t) = v'(t)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「位置」微分一次是「速度」，再微分一次是「加速度」。</t>
-  </si>
-  <si>
     <t>function_increase_decrease_test</t>
   </si>
   <si>
@@ -385,9 +330,6 @@
     <t>熟練利用 f'(x) 的正負判斷 f(x) 的遞增 (f'&gt;0) 或遞減 (f'&lt;0) 區間。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 f'(x) &gt; 0 則 f(x) 遞增；f'(x) &lt; 0 則 f(x) 遞減。</t>
-  </si>
-  <si>
     <t>extrema_first_derivative_test</t>
   </si>
   <si>
@@ -400,9 +342,6 @@
     <t>熟練使用一階導數 f'(x) 檢定法找 f(x) 的相對極值（f'(x) 變號）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 f'(a)=0 且 f' 由 + 轉 -，則 f(a) 為極大值；f' 由 - 轉 +，則 f(a) 為極小值。</t>
-  </si>
-  <si>
     <t>function_concavity_test</t>
   </si>
   <si>
@@ -415,9 +354,6 @@
     <t>熟練利用 f''(x) 的正負判斷 f(x) 的凹向（f''&gt;0 凹向上, f''&lt;0 凹向下）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 f''(x) &gt; 0 則 f(x) 凹向上 (像笑臉)；f''(x) &lt; 0 則 f(x) 凹向下 (像哭臉)。</t>
-  </si>
-  <si>
     <t>function_inflection_point</t>
   </si>
   <si>
@@ -430,9 +366,6 @@
     <t>熟練求解 f(x) 的反曲點（f''(x) = 0 且 f''(x) 兩側變號）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「反曲點」是凹向改變的地方，需 f''(a)=0 且 f''(x) 在 a 兩側變號。</t>
-  </si>
-  <si>
     <t>extrema_second_derivative_test</t>
   </si>
   <si>
@@ -445,9 +378,6 @@
     <t>熟練使用二階導數 f''(x) 檢定法找 f(x) 的相對極值。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生若 f'(a)=0 且 f''(a) &lt; 0，f(a) 為極大值；若 f'(a)=0 且 f''(a) &gt; 0，f(a) 為極小值。</t>
-  </si>
-  <si>
     <t>optimization_problems</t>
   </si>
   <si>
@@ -460,9 +390,6 @@
     <t>熟練應用微分求解最大值、最小值的應用問題。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生 1. 建立 f(x) 函數 2. 找出 f'(x)=0 的點 3. 判斷極值。</t>
-  </si>
-  <si>
     <t>area_upper_lower_sum</t>
   </si>
   <si>
@@ -478,9 +405,6 @@
     <t>熟練計算 f(x) 在 [a, b] 區間的上和與下和。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「上和」用區間最大值 (Mᵢ)·Δx，「下和」用區間最小值 (mᵢ)·Δx。</t>
-  </si>
-  <si>
     <t>definite_integral_definition</t>
   </si>
   <si>
@@ -493,9 +417,6 @@
     <t>理解定積分 ∫[a,b] f(x)dx 是黎曼和 (Riemann Sum) 的極限。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 ∫[a,b] f(x)dx = lim Σ f(xᵢ)Δx。</t>
-  </si>
-  <si>
     <t>antiderivative_calc_poly</t>
   </si>
   <si>
@@ -508,9 +429,6 @@
     <t>熟練計算多項式的反導函數（不定積分 ∫xⁿ dx = (xⁿ⁺¹)/(n+1) + C）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 ∫xⁿ dx = (xⁿ⁺¹)/(n+1) + C (次方加1，除以新次方)。</t>
-  </si>
-  <si>
     <t>ftc_main</t>
   </si>
   <si>
@@ -523,9 +441,6 @@
     <t>熟練應用微積分基本定理 d/dx (∫[a,x] f(t)dt) = f(x)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 d/dx (∫[a,x] f(t)dt) = f(x)。</t>
-  </si>
-  <si>
     <t>ftc_evaluation_theorem</t>
   </si>
   <si>
@@ -538,9 +453,6 @@
     <t>熟練應用 F(b) - F(a) 計算定積分 ∫[a,b] f(x)dx。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 ∫[a,b] f(x)dx = F(b) - F(a)，其中 F(x) 是 f(x) 的反導函數。</t>
-  </si>
-  <si>
     <t>integral_properties</t>
   </si>
   <si>
@@ -553,9 +465,6 @@
     <t>熟練應用定積分的線性性質 (∫(f+g) = ∫f + ∫g) 與區間可加性。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 ∫[a,c] + ∫[c,b] = ∫[a,b]。</t>
-  </si>
-  <si>
     <t>area_between_curves</t>
   </si>
   <si>
@@ -571,9 +480,6 @@
     <t>熟練計算兩函數 f(x), g(x) 在 [a, b] 間所圍面積 ∫[a,b] (f(x) - g(x)) dx。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生面積 = ∫[a,b] (上函數 - 下函數) dx，並檢查 f(x), g(x) 的相對位置。</t>
-  </si>
-  <si>
     <t>volume_by_slicing</t>
   </si>
   <si>
@@ -586,9 +492,6 @@
     <t>熟練應用切片法計算立體體積 V = ∫[a,b] A(x) dx。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 V = ∫[a,b] A(x) dx，其中 A(x) 是垂直 x 軸的截面積。</t>
-  </si>
-  <si>
     <t>volume_of_revolution_disk</t>
   </si>
   <si>
@@ -601,9 +504,6 @@
     <t>熟練應用圓盤法計算旋轉體體積 V = π ∫[a,b] [R(x)]² dx。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 V = π ∫[a,b] [R(x)]² dx，其中 R(x) 是旋轉半徑。</t>
-  </si>
-  <si>
     <t>volume_of_revolution_washer</t>
   </si>
   <si>
@@ -616,23 +516,369 @@
     <t>熟練應用墊圈法計算旋轉體體積 V = π ∫[a,b] ([R(x)]² - [r(x)]²) dx。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 V = π ∫[a,b] ([R(x)]² - [r(x)]²) dx，其中 R(x) 是大半徑，r(x) 是小半徑。</t>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「收斂」代表 n → ∞ 時，aₙ 趨近一個定值 L；否則為「發散」。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生找出 n 的最高次，並同除分子與分母。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生若 aₙ ≤ bₙ ≤ cₙ 且 lim aₙ = lim cₙ = L，則 lim bₙ = L。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生檢查 |r| &lt; 1，並使用公式 S = a₁ / (1-r)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 (f/g)(x) 的定義域需注意 g(x) ≠ 0。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 g(f(x)) 是將 f(x) 的值代入 g(x) 的 x 中。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 lim f(x) 是 x「趨近」a 的值，不等於 f(a)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生若代入為 0/0，需使用因式分解或有理化來消除不定型。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生極限存在 ⇔ 左極限 = 右極限。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生若 f(x) ≤ g(x) ≤ h(x) 且 lim f(x) = lim h(x) = L，則 lim g(x) = L。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「連續」需滿足 1. f(a)有定義 2. lim f(x) 存在 3. 極限值 = 函數值。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生若 f(x) 在 [a, b] 連續且 f(a)·f(b) &lt; 0，則在 (a, b) 至少有一實根。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 f'(a) = lim [f(a+h) - f(a)] / h 的極限定義。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生切線斜率 m = f'(a)，切線 L: y - f(a) = f'(a) (x - a)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「可微分」必「連續」，但「連續」不一定「可微分」（例如 f(x) = |x| 在 x=0）。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 (c f(x))' = c f'(x) 且 (f+g)' = f' + g'。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 (f·g)' = f'g + fg' (前微後不微 + 前不微後微)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 (f/g)' = (f'g - fg') / g² (子微母不微 - 子不微母微 / 母平方)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 [g(f(x))]' = g'(f(x)) · f'(x) (先微外面，再乘裡面)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 L(x) = f(a) + f'(a)(x-a) 是 f(x) 在 x=a 處的切線方程式。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「位置」微分一次是「速度」，再微分一次是「加速度」。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 f'(x) &gt; 0 則 f(x) 遞增；f'(x) &lt; 0 則 f(x) 遞減。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 f'(a)=0 且 f' 由 + 轉 -，則 f(a) 為極大值；f' 由 - 轉 +，則 f(a) 為極小值。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 f''(x) &gt; 0 則 f(x) 凹向上 (像笑臉)；f''(x) &lt; 0 則 f(x) 凹向下 (像哭臉)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「反曲點」是凹向改變的地方，需 f''(a)=0 且 f''(x) 在 a 兩側變號。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生若 f'(a)=0 且 f''(a) &lt; 0，f(a) 為極大值；若 f'(a)=0 且 f''(a) &gt; 0，f(a) 為極小值。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生 1. 建立 f(x) 函數 2. 找出 f'(x)=0 的點 3. 判斷極值。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「上和」用區間最大值 (Mᵢ)·Δx，「下和」用區間最小值 (mᵢ)·Δx。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 ∫[a,b] f(x)dx = lim Σ f(xᵢ)Δx。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 ∫xⁿ dx = (xⁿ⁺¹)/(n+1) + C (次方加1，除以新次方)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 d/dx (∫[a,x] f(t)dt) = f(x)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 ∫[a,b] f(x)dx = F(b) - F(a)，其中 F(x) 是 f(x) 的反導函數。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 ∫[a,c] + ∫[c,b] = ∫[a,b]。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生面積 = ∫[a,b] (上函數 - 下函數) dx，並檢查 f(x), g(x) 的相對位置。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 V = ∫[a,b] A(x) dx，其中 A(x) 是垂直 x 軸的截面積。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 V = π ∫[a,b] [R(x)]² dx，其中 R(x) 是旋轉半徑。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 V = π ∫[a,b] ([R(x)]² - [r(x)]²) dx，其中 R(x) 是大半徑，r(x) 是小半徑。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -641,36 +887,46 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -860,20 +1116,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:Q1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -905,7 +1166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -925,1153 +1186,1189 @@
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2600</v>
+      </c>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>2600.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2610</v>
+      </c>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>2610.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2620</v>
+      </c>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H4" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>2620.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2630</v>
+      </c>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>2630.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2640</v>
+      </c>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2650</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>2640.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>2650.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="H8" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>2660.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>2660</v>
+      </c>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="H9" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>2670.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>2670</v>
+      </c>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>57</v>
+        <v>173</v>
       </c>
       <c r="H10" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J10" s="1">
-        <v>2680.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>2680</v>
+      </c>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>62</v>
+        <v>174</v>
       </c>
       <c r="H11" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J11" s="1">
-        <v>2690.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>2690</v>
+      </c>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c r="H12" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I12" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J12" s="1">
-        <v>2700.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>2700</v>
+      </c>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2710</v>
+      </c>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2720</v>
+      </c>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H15" s="1">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2730</v>
+      </c>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1">
-        <v>2710.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" s="1">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2740</v>
+      </c>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H17" s="1">
+        <v>5</v>
+      </c>
+      <c r="I17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2750</v>
+      </c>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1">
-        <v>2720.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H18" s="1">
+        <v>5</v>
+      </c>
+      <c r="I18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2760</v>
+      </c>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
-        <v>2730.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H19" s="1">
+        <v>5</v>
+      </c>
+      <c r="I19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2770</v>
+      </c>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
-        <v>2740.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H20" s="1">
+        <v>5</v>
+      </c>
+      <c r="I20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2780</v>
+      </c>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="D21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H17" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
-        <v>2750.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="F21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H21" s="1">
+        <v>5</v>
+      </c>
+      <c r="I21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2790</v>
+      </c>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="D22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H22" s="1">
+        <v>5</v>
+      </c>
+      <c r="I22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2800</v>
+      </c>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H18" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1">
-        <v>2760.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="F23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H23" s="1">
+        <v>5</v>
+      </c>
+      <c r="I23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>2810</v>
+      </c>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H19" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1">
-        <v>2770.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="F24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H24" s="1">
+        <v>5</v>
+      </c>
+      <c r="I24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>2820</v>
+      </c>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H20" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1">
-        <v>2780.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="D25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="F25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H25" s="1">
+        <v>5</v>
+      </c>
+      <c r="I25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>2830</v>
+      </c>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H21" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1">
-        <v>2790.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="D26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="F26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H26" s="1">
+        <v>5</v>
+      </c>
+      <c r="I26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>2840</v>
+      </c>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="D27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H22" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1">
-        <v>2800.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="F27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H27" s="1">
+        <v>5</v>
+      </c>
+      <c r="I27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>2850</v>
+      </c>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H28" s="1">
+        <v>5</v>
+      </c>
+      <c r="I28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>2860</v>
+      </c>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H23" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" s="1">
-        <v>2810.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="F29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H29" s="1">
+        <v>5</v>
+      </c>
+      <c r="I29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1">
+        <v>2870</v>
+      </c>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H24" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" s="1">
-        <v>2820.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="D30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="F30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H30" s="1">
+        <v>5</v>
+      </c>
+      <c r="I30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1">
+        <v>2880</v>
+      </c>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H25" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" s="1">
-        <v>2830.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="D31" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="F31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H31" s="1">
+        <v>5</v>
+      </c>
+      <c r="I31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
+        <v>2890</v>
+      </c>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="D32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H26" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I26" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" s="1">
-        <v>2840.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="F32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H32" s="1">
+        <v>5</v>
+      </c>
+      <c r="I32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1">
+        <v>2900</v>
+      </c>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="D33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="1" t="s">
+      <c r="F33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H33" s="1">
+        <v>5</v>
+      </c>
+      <c r="I33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1">
+        <v>2910</v>
+      </c>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H27" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" s="1">
-        <v>2850.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D34" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="F34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H34" s="1">
+        <v>5</v>
+      </c>
+      <c r="I34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1">
+        <v>2920</v>
+      </c>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H28" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I28" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" s="1">
-        <v>2860.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="F35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H35" s="1">
+        <v>5</v>
+      </c>
+      <c r="I35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1">
+        <v>2930</v>
+      </c>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="H29" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" s="1">
-        <v>2870.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="D36" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="F36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H36" s="1">
+        <v>5</v>
+      </c>
+      <c r="I36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1">
+        <v>2940</v>
+      </c>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="1" t="s">
+      <c r="D37" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H30" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I30" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" s="1">
-        <v>2880.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="F37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H37" s="1">
+        <v>5</v>
+      </c>
+      <c r="I37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1">
+        <v>2950</v>
+      </c>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="D38" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H31" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" s="1">
-        <v>2890.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H32" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I32" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" s="1">
-        <v>2900.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H33" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" s="1">
-        <v>2910.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H34" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I34" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J34" s="1">
-        <v>2920.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H35" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I35" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J35" s="1">
-        <v>2930.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H36" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I36" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" s="1">
-        <v>2940.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H37" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I37" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J37" s="1">
-        <v>2950.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>15</v>
@@ -2080,16 +2377,18 @@
         <v>201</v>
       </c>
       <c r="H38" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I38" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J38" s="1">
-        <v>2960.0</v>
-      </c>
+        <v>2960</v>
+      </c>
+      <c r="M38" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>